--- a/data/20news-18828/2_class/concepts_computer.xlsx
+++ b/data/20news-18828/2_class/concepts_computer.xlsx
@@ -56,13 +56,13 @@
     <t>Google_Chrome</t>
   </si>
   <si>
-    <t>Layer_no</t>
-  </si>
-  <si>
     <t>concepts</t>
   </si>
   <si>
     <t>material</t>
+  </si>
+  <si>
+    <t>layer_no</t>
   </si>
 </sst>
 </file>
@@ -379,9 +379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -390,16 +388,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -421,7 +419,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">

--- a/data/20news-18828/2_class/concepts_computer.xlsx
+++ b/data/20news-18828/2_class/concepts_computer.xlsx
@@ -27,42 +27,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>layer_1</t>
-  </si>
-  <si>
-    <t>layer_2</t>
-  </si>
-  <si>
-    <t>layer_3</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Hard_Disk</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>Microsoft_Office</t>
-  </si>
-  <si>
-    <t>Google_Chrome</t>
-  </si>
-  <si>
-    <t>concepts</t>
-  </si>
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>layer_no</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+  <si>
+    <t>ITAgent</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>GeopoliticalArea</t>
+  </si>
+  <si>
+    <t>CommertialArea</t>
+  </si>
+  <si>
+    <t>Organism</t>
+  </si>
+  <si>
+    <t>SentientAgent</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>Artifact</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>ContactSite</t>
+  </si>
+  <si>
+    <t>PreparedFood</t>
+  </si>
+  <si>
+    <t>RawFood</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>SelfConnectedObject</t>
+  </si>
+  <si>
+    <t>TransitwayObstacle</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>PhysicalSystem</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>ContentBearing</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Abstract</t>
   </si>
 </sst>
 </file>
@@ -377,63 +404,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
